--- a/indexes.xlsx
+++ b/indexes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firat\Desktop\Izmir_fiyatlar\Ave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firat\Desktop\izmir_prices\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92628A81-C051-49BF-9636-2252AF3CED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E1063E-DAA7-446D-A99C-E286B23D63D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{4EB6C1A8-61D3-4EFA-AFC6-0404654AB8FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>2007</t>
   </si>
@@ -86,22 +86,31 @@
     <t>TUIK_GIDA</t>
   </si>
   <si>
-    <t>BALIK</t>
-  </si>
-  <si>
-    <t>SEBZE_MEYVE</t>
-  </si>
-  <si>
-    <t>Izmir_Gida</t>
-  </si>
-  <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>TUIK_BALIK</t>
+  </si>
+  <si>
+    <t>IZM_BALIK</t>
+  </si>
+  <si>
+    <t>IZM_SEBMEY</t>
+  </si>
+  <si>
+    <t>Izmir_GIDA</t>
+  </si>
+  <si>
+    <t>TUIK_SEBMEY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,10 +146,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,33 +466,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B3A2AE-BC9E-44DE-A41C-2E2F19A9AA3B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.734375" customWidth="1"/>
+    <col min="7" max="7" width="11.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,281 +513,395 @@
         <v>100</v>
       </c>
       <c r="D2" s="2">
+        <f>AVERAGE(B2:C2)</f>
         <v>100</v>
       </c>
-      <c r="E2" s="2">
-        <f>AVERAGE(C2:D2)</f>
+      <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <f>(E2+F2)/2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>111.60105532366916</v>
+        <v>230.15434619017844</v>
       </c>
       <c r="C3" s="2">
-        <v>150.82979544577384</v>
+        <v>87.289012455867379</v>
       </c>
       <c r="D3" s="2">
-        <v>87.289012455867379</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E17" si="0">AVERAGE(C3:D3)</f>
-        <v>119.05940395082061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="D3:D17" si="0">AVERAGE(B3:C3)</f>
+        <v>158.7216793230229</v>
+      </c>
+      <c r="E3">
+        <v>106.36373429020976</v>
+      </c>
+      <c r="F3">
+        <v>98.928576245546196</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="1">(E3+F3)/2</f>
+        <v>102.64615526787799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>119.06625793080354</v>
+        <v>169.72477064220183</v>
       </c>
       <c r="C4" s="2">
-        <v>99.729834040910845</v>
+        <v>92.003996619460224</v>
       </c>
       <c r="D4" s="2">
-        <v>92.003996619460224</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>95.866915330185535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>130.86438363083101</v>
+      </c>
+      <c r="E4">
+        <v>121.43851086110048</v>
+      </c>
+      <c r="F4">
+        <v>101.35767117393027</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>111.39809101751538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>132.1030845702212</v>
+        <v>191.131498470948</v>
       </c>
       <c r="C5" s="2">
-        <v>120.26244693168658</v>
+        <v>97.28322683579897</v>
       </c>
       <c r="D5" s="2">
-        <v>97.28322683579897</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>108.77283688374277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>144.20736265337348</v>
+      </c>
+      <c r="E5">
+        <v>131.15196004852666</v>
+      </c>
+      <c r="F5">
+        <v>112.79309156757959</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>121.97252580805312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>139.91467350202348</v>
+        <v>221.7125382262997</v>
       </c>
       <c r="C6" s="2">
-        <v>153.26128907757624</v>
+        <v>111.84946329981754</v>
       </c>
       <c r="D6" s="2">
-        <v>111.84946329981754</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>132.5553761886969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>166.78100076305861</v>
+      </c>
+      <c r="E6">
+        <v>130.07088278558399</v>
+      </c>
+      <c r="F6">
+        <v>129.62542962328257</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>129.84815620443328</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>152.98729339499013</v>
+        <v>229.35779816513761</v>
       </c>
       <c r="C7" s="2">
-        <v>157.77692010806638</v>
+        <v>108.4661096937768</v>
       </c>
       <c r="D7" s="2">
-        <v>108.4661096937768</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>133.1215149009216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>168.91195392945721</v>
+      </c>
+      <c r="E7">
+        <v>125.70534022500959</v>
+      </c>
+      <c r="F7">
+        <v>126.4768859345962</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>126.09111307980289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>167.11177309386494</v>
+        <v>233.94495412844037</v>
       </c>
       <c r="C8" s="2">
-        <v>160.32419915090699</v>
+        <v>115.41922050123611</v>
       </c>
       <c r="D8" s="2">
-        <v>115.41922050123611</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>137.87170982607154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>174.68208731483824</v>
+      </c>
+      <c r="E8">
+        <v>127.34390865409239</v>
+      </c>
+      <c r="F8">
+        <v>141.70960618125889</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>134.52675741767564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>191.17234451583852</v>
+        <v>264.52599388379207</v>
       </c>
       <c r="C9" s="2">
-        <v>198.3018139714396</v>
+        <v>129.2840739453585</v>
       </c>
       <c r="D9" s="2">
-        <v>129.2840739453585</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>163.79294395839906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>196.90503391457528</v>
+      </c>
+      <c r="E9">
+        <v>141.53044304389823</v>
+      </c>
+      <c r="F9">
+        <v>156.86788079583926</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>149.19916191986874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>216.55380245587909</v>
+        <v>266.78375388934472</v>
       </c>
       <c r="C10" s="2">
-        <v>214.08722500964879</v>
+        <v>147.81523730915353</v>
       </c>
       <c r="D10" s="2">
-        <v>147.81523730915353</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>180.95123115940117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>207.29949559924913</v>
+      </c>
+      <c r="E10">
+        <v>171.11288092433696</v>
+      </c>
+      <c r="F10">
+        <v>192.29391263808131</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>181.70339678120914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>228.90997996732423</v>
+        <v>279.81651376146789</v>
       </c>
       <c r="C11" s="2">
-        <v>225.51138556541872</v>
+        <v>147.44623125103666</v>
       </c>
       <c r="D11" s="2">
-        <v>147.44623125103666</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>186.47880840822768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>213.63137250625226</v>
+      </c>
+      <c r="E11">
+        <v>164.44488395460255</v>
+      </c>
+      <c r="F11">
+        <v>202.35368050090483</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>183.3992822277537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>261.23590640641515</v>
+        <v>321.10091743119267</v>
       </c>
       <c r="C12" s="2">
-        <v>263.56619065997688</v>
+        <v>181.0618686170591</v>
       </c>
       <c r="D12" s="2">
-        <v>181.0618686170591</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>222.31402963851798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>251.08139302412587</v>
+      </c>
+      <c r="E12">
+        <v>193.41084997536584</v>
+      </c>
+      <c r="F12">
+        <v>218.36188165632555</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>205.88636581584569</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>315.39225364715941</v>
+        <v>386.8501529051988</v>
       </c>
       <c r="C13" s="2">
-        <v>324.19915090698572</v>
+        <v>187.35106471206174</v>
       </c>
       <c r="D13" s="2">
-        <v>187.35106471206174</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>255.77510780952372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>287.10060880863028</v>
+      </c>
+      <c r="E13">
+        <v>233.44532012919248</v>
+      </c>
+      <c r="F13">
+        <v>247.06581940559911</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>240.2555697673958</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>383.35555978916619</v>
+        <v>478.59327217125383</v>
       </c>
       <c r="C14" s="2">
-        <v>397.52991123118488</v>
+        <v>262.1095200107419</v>
       </c>
       <c r="D14" s="2">
-        <v>262.1095200107419</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>329.81971562096339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>370.35139609099787</v>
+      </c>
+      <c r="E14">
+        <v>466.28516105790885</v>
+      </c>
+      <c r="F14">
+        <v>316.97006163937118</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>391.62761134864002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>441.13568529647779</v>
+        <v>530.58103975535175</v>
       </c>
       <c r="C15" s="2">
-        <v>458.12427634118103</v>
+        <v>311.80533066892036</v>
       </c>
       <c r="D15" s="2">
-        <v>311.80533066892036</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>384.96480350505067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>421.19318521213609</v>
+      </c>
+      <c r="E15">
+        <v>502.87773690725743</v>
+      </c>
+      <c r="F15">
+        <v>367.07088130819318</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>434.97430910772528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>550.2710472990525</v>
+        <v>756.88073394495416</v>
       </c>
       <c r="C16" s="2">
-        <v>633.73214974913162</v>
+        <v>342.26089394741206</v>
       </c>
       <c r="D16" s="2">
-        <v>342.26089394741206</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>487.99652184827187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="0"/>
+        <v>549.57081394618308</v>
+      </c>
+      <c r="E16">
+        <v>644.62569333217971</v>
+      </c>
+      <c r="F16">
+        <v>421.29282057533089</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>532.95925695375536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>787.40885709832173</v>
+        <v>1198.776758409786</v>
       </c>
       <c r="C17" s="2">
-        <v>974.14125820146648</v>
+        <v>484.38316996690548</v>
       </c>
       <c r="D17" s="2">
-        <v>484.38316996690548</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>729.26221408418598</v>
+        <f t="shared" si="0"/>
+        <v>841.57996418834568</v>
+      </c>
+      <c r="E17">
+        <v>894.75001191975116</v>
+      </c>
+      <c r="F17">
+        <v>564.60613627121006</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>729.67807409548061</v>
       </c>
     </row>
   </sheetData>
